--- a/FishLandings/household groups/statistics/CPUE_output.xlsx
+++ b/FishLandings/household groups/statistics/CPUE_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>9405.951567</v>
+        <v>15944.639376</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>125.667214</v>
+        <v>203.814385</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>1441.540078</v>
+        <v>2721.927865</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>9.629771</v>
+        <v>17.396695</v>
       </c>
       <c r="E3">
-        <v>9.7e-05</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>16691.125237</v>
+        <v>25972.750949</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-5.090259</v>
+        <v>-5.762183</v>
       </c>
       <c r="H5">
-        <v>-8.868672999999999</v>
+        <v>-8.968999</v>
       </c>
       <c r="I5">
-        <v>-1.311846</v>
+        <v>-2.555368</v>
       </c>
       <c r="J5">
-        <v>0.004793</v>
+        <v>8.899999999999999e-05</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>-0.058084</v>
+        <v>-0.087215</v>
       </c>
       <c r="H6">
-        <v>-4.126635</v>
+        <v>-3.455459</v>
       </c>
       <c r="I6">
-        <v>4.010468</v>
+        <v>3.281028</v>
       </c>
       <c r="J6">
-        <v>0.999375</v>
+        <v>0.997953</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>5.032176</v>
+        <v>5.674968</v>
       </c>
       <c r="H7">
-        <v>1.956309</v>
+        <v>3.142274</v>
       </c>
       <c r="I7">
-        <v>8.108043</v>
+        <v>8.207661999999999</v>
       </c>
       <c r="J7">
-        <v>0.000435</v>
+        <v>1e-06</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/CPUE_output.xlsx
+++ b/FishLandings/household groups/statistics/CPUE_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>15944.639376</v>
+        <v>9405.951567</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>203.814385</v>
+        <v>125.667214</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>2721.927865</v>
+        <v>1441.540078</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>17.396695</v>
+        <v>9.629771</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>9.7e-05</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>25972.750949</v>
+        <v>16691.125237</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-5.762183</v>
+        <v>-5.090259</v>
       </c>
       <c r="H5">
-        <v>-8.968999</v>
+        <v>-8.868672999999999</v>
       </c>
       <c r="I5">
-        <v>-2.555368</v>
+        <v>-1.311846</v>
       </c>
       <c r="J5">
-        <v>8.899999999999999e-05</v>
+        <v>0.004793</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>-0.087215</v>
+        <v>-0.058084</v>
       </c>
       <c r="H6">
-        <v>-3.455459</v>
+        <v>-4.126635</v>
       </c>
       <c r="I6">
-        <v>3.281028</v>
+        <v>4.010468</v>
       </c>
       <c r="J6">
-        <v>0.997953</v>
+        <v>0.999375</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>5.674968</v>
+        <v>5.032176</v>
       </c>
       <c r="H7">
-        <v>3.142274</v>
+        <v>1.956309</v>
       </c>
       <c r="I7">
-        <v>8.207661999999999</v>
+        <v>8.108043</v>
       </c>
       <c r="J7">
-        <v>1e-06</v>
+        <v>0.000435</v>
       </c>
     </row>
   </sheetData>
